--- a/stats.xlsx
+++ b/stats.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>chat_id</t>
   </si>
@@ -37,41 +40,141 @@
     <t>reg date</t>
   </si>
   <si>
-    <t>Abdurahmon bbbb</t>
+    <t>Файзиева Ёдгора</t>
+  </si>
+  <si>
+    <t>998903586263</t>
+  </si>
+  <si>
+    <t>2022-07-28 14:11:38</t>
+  </si>
+  <si>
+    <t>2022-07-28 14:12:17</t>
+  </si>
+  <si>
+    <t>Nasirdinov Avazbek</t>
+  </si>
+  <si>
+    <t>2022-07-19 09:12:23</t>
+  </si>
+  <si>
+    <t>2022-07-15 14:11:15</t>
+  </si>
+  <si>
+    <t>Umidjon Ortiqov</t>
+  </si>
+  <si>
+    <t>998901323838</t>
+  </si>
+  <si>
+    <t>2022-07-14 14:05:30</t>
+  </si>
+  <si>
+    <t>2022-07-14 14:05:36</t>
+  </si>
+  <si>
+    <t>Umid yangiboev</t>
+  </si>
+  <si>
+    <t>821057144991</t>
+  </si>
+  <si>
+    <t>2022-07-14 14:39:04</t>
+  </si>
+  <si>
+    <t>2022-07-14 16:43:16</t>
+  </si>
+  <si>
+    <t>2022-07-28 14:31:41</t>
+  </si>
+  <si>
+    <t>Nznsnnsns</t>
   </si>
   <si>
     <t>998916913177</t>
   </si>
   <si>
-    <t>2022-07-02 12:42:12</t>
-  </si>
-  <si>
-    <t>2022-07-02 17:42:24</t>
-  </si>
-  <si>
-    <t>abdurahmon sulaymonov</t>
+    <t>2022-07-16 13:05:04</t>
+  </si>
+  <si>
+    <t>2022-07-16 13:05:11</t>
+  </si>
+  <si>
+    <t>Berkinov Abubakr</t>
+  </si>
+  <si>
+    <t>998990272852</t>
+  </si>
+  <si>
+    <t>2022-07-21 09:50:05</t>
+  </si>
+  <si>
+    <t>2022-07-21 09:50:35</t>
+  </si>
+  <si>
+    <t>Nargiza Kodirova</t>
+  </si>
+  <si>
+    <t>2022-08-04 17:16:25</t>
+  </si>
+  <si>
+    <t>Shukurullox</t>
   </si>
   <si>
     <t>+998950657313</t>
   </si>
   <si>
-    <t>2022-07-02 12:39:17</t>
-  </si>
-  <si>
-    <t>2022-07-02 17:39:57</t>
+    <t>2022-07-14 16:29:26</t>
+  </si>
+  <si>
+    <t>2022-07-14 16:29:43</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/reel/Cg81b3eIDy1/?igshid=YmMyMTA2M2Y=</t>
+  </si>
+  <si>
+    <t>2022-07-15 11:55:35</t>
+  </si>
+  <si>
+    <t>Jalolov Asadbek</t>
+  </si>
+  <si>
+    <t>2022-07-16 21:01:19</t>
+  </si>
+  <si>
+    <t>Oblayorov Davronjon</t>
+  </si>
+  <si>
+    <t>998938153302</t>
+  </si>
+  <si>
+    <t>2022-07-19 14:38:53</t>
+  </si>
+  <si>
+    <t>2022-07-19 14:39:12</t>
+  </si>
+  <si>
+    <t>2022-07-20 09:38:09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,13 +194,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,82 +499,355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>62140644</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8">
-      <c r="B2">
-        <v>787151163</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
       <c r="B3">
-        <v>1025888307</v>
+        <v>399312980</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>403286478</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>429121485</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>644822262</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>727568654</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>787151163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>901017167</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>963698398</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1025888307</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1261649994</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1795408764</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1839501981</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5232800049</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C12" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stats.xlsx
+++ b/stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>2022-07-19 14:39:12</t>
+  </si>
+  <si>
+    <t>2022-11-11 09:15:42</t>
   </si>
   <si>
     <t>2022-07-20 09:38:09</t>
@@ -499,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -832,7 +835,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>5232800049</v>
+        <v>2111241229</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -842,6 +845,23 @@
       </c>
       <c r="G15" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5232800049</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
